--- a/medicine/Médecine vétérinaire/Adrien_Lucet/Adrien_Lucet.xlsx
+++ b/medicine/Médecine vétérinaire/Adrien_Lucet/Adrien_Lucet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Désiré Adrien Lucet dit Adrien Lucet, né le 27 octobre 1858 à Courtenay et décédé le 6 décembre 1916 à Paris, est un médecin vétérinaire français.
 Diplômé de l'École vétérinaire d'Alfort, il exerce d'abord comme vétérinaire dans le Loiret. Appelé par Auguste Chauveau, il devient assistant à la chaire de pathologie comparée au Muséum d'histoire naturelle de Paris en 1907. Il est élu à l'Académie de médecine en 1910.
-En 1916 il succède à Maurice Caullery à la présidence de la Société zoologique de France[2].
-Il reçoit le prix Barbier en 1906[3].
+En 1916 il succède à Maurice Caullery à la présidence de la Société zoologique de France.
+Il reçoit le prix Barbier en 1906.
 </t>
         </is>
       </c>
